--- a/Code/(11)/Acc_final_Psilo.xlsx
+++ b/Code/(11)/Acc_final_Psilo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7f2d186216cf91ab/Bidlung/University/M.S. Leiden University/M.S. Neuroscience (Research)/Internship Groningen/Meta analysis Literature final/(11) Marschall (2021)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="8_{2CDA1D92-D904-4152-8779-CB0470FA24F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0D5B5B4-6317-49B2-B6DF-BF52844ED72F}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="8_{2CDA1D92-D904-4152-8779-CB0470FA24F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{327C8B0F-F3B7-4594-AD82-91F29F214C95}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="-17970" windowWidth="16575" windowHeight="15345" xr2:uid="{96637F1F-332B-4C92-A929-79049D0134AF}"/>
+    <workbookView xWindow="3330" yWindow="3330" windowWidth="21600" windowHeight="12645" xr2:uid="{96637F1F-332B-4C92-A929-79049D0134AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Psilo" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>participant</t>
   </si>
@@ -54,6 +54,18 @@
   </si>
   <si>
     <t>AVGcorrect  for subj</t>
+  </si>
+  <si>
+    <t>FearNeut</t>
+  </si>
+  <si>
+    <t>SadNeut</t>
+  </si>
+  <si>
+    <t>HappyNeut</t>
+  </si>
+  <si>
+    <t>AngryNeut</t>
   </si>
 </sst>
 </file>
@@ -124,6 +136,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -423,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7847B040-3AD4-4B2D-9010-50A9BB38B393}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,12 +450,13 @@
     <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,10 +473,22 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -476,11 +505,23 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F2">
-        <f>1-AVERAGE(B2:E2)</f>
+        <v>3.3898305084745797E-2</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J40" si="0">1-AVERAGE(B2:E2)</f>
         <v>0.98750000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -497,11 +538,23 @@
         <v>0.05</v>
       </c>
       <c r="F3">
-        <f>1-AVERAGE(B3:E3)</f>
+        <v>1.6949152542372899E-2</v>
+      </c>
+      <c r="G3">
+        <v>0.05</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>A3+1</f>
         <v>4</v>
@@ -519,11 +572,23 @@
         <v>0.15</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F40" si="0">1-AVERAGE(B4:E4)</f>
+        <v>0.62711864406779705</v>
+      </c>
+      <c r="G4">
+        <v>0.125</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
         <v>0.94374999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6</v>
       </c>
@@ -540,11 +605,23 @@
         <v>0.05</v>
       </c>
       <c r="F5">
+        <v>0.101694915254237</v>
+      </c>
+      <c r="G5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0.1</v>
+      </c>
+      <c r="J5">
         <f t="shared" si="0"/>
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7</v>
       </c>
@@ -561,11 +638,23 @@
         <v>0.05</v>
       </c>
       <c r="F6">
+        <v>1.6949152542372899E-2</v>
+      </c>
+      <c r="G6">
+        <v>0.1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0.125</v>
+      </c>
+      <c r="J6">
         <f t="shared" si="0"/>
         <v>0.93125000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8</v>
       </c>
@@ -582,11 +671,23 @@
         <v>0.2</v>
       </c>
       <c r="F7">
+        <v>0.76271186440677996</v>
+      </c>
+      <c r="G7">
+        <v>0.05</v>
+      </c>
+      <c r="H7">
+        <v>0.125</v>
+      </c>
+      <c r="I7">
+        <v>0.15</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="0"/>
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9</v>
       </c>
@@ -603,11 +704,23 @@
         <v>0</v>
       </c>
       <c r="F8">
+        <v>5.0847457627118703E-2</v>
+      </c>
+      <c r="G8">
+        <v>0.05</v>
+      </c>
+      <c r="H8">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I8">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="0"/>
         <v>0.98124999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10</v>
       </c>
@@ -624,11 +737,23 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F9">
+        <v>8.4745762711864403E-2</v>
+      </c>
+      <c r="G9">
+        <v>0.05</v>
+      </c>
+      <c r="H9">
+        <v>0.05</v>
+      </c>
+      <c r="I9">
+        <v>0.05</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="0"/>
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>11</v>
       </c>
@@ -645,11 +770,23 @@
         <v>0.15</v>
       </c>
       <c r="F10">
+        <v>0.28813559322033899</v>
+      </c>
+      <c r="G10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <f t="shared" si="0"/>
         <v>0.89375000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>12</v>
       </c>
@@ -666,11 +803,23 @@
         <v>0.1</v>
       </c>
       <c r="F11">
+        <v>5.0847457627118703E-2</v>
+      </c>
+      <c r="G11">
+        <v>0.05</v>
+      </c>
+      <c r="H11">
+        <v>0.1</v>
+      </c>
+      <c r="I11">
+        <v>0.05</v>
+      </c>
+      <c r="J11">
         <f t="shared" si="0"/>
         <v>0.9375</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>13</v>
       </c>
@@ -687,11 +836,23 @@
         <v>0</v>
       </c>
       <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0.05</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J12">
         <f t="shared" si="0"/>
         <v>0.99375000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>14</v>
       </c>
@@ -708,11 +869,23 @@
         <v>0</v>
       </c>
       <c r="F13">
+        <v>6.7796610169491497E-2</v>
+      </c>
+      <c r="G13">
+        <v>0.05</v>
+      </c>
+      <c r="H13">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
         <f t="shared" si="0"/>
         <v>0.9375</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>15</v>
       </c>
@@ -729,11 +902,23 @@
         <v>0.05</v>
       </c>
       <c r="F14">
+        <v>8.4745762711864403E-2</v>
+      </c>
+      <c r="G14">
+        <v>0.05</v>
+      </c>
+      <c r="H14">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I14">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="J14">
         <f t="shared" si="0"/>
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>16</v>
       </c>
@@ -750,11 +935,23 @@
         <v>0</v>
       </c>
       <c r="F15">
+        <v>0.22033898305084701</v>
+      </c>
+      <c r="G15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H15">
+        <v>0.125</v>
+      </c>
+      <c r="I15">
+        <v>0.1</v>
+      </c>
+      <c r="J15">
         <f t="shared" si="0"/>
         <v>0.95625000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>17</v>
       </c>
@@ -771,11 +968,23 @@
         <v>0.05</v>
       </c>
       <c r="F16">
+        <v>0.93220338983050799</v>
+      </c>
+      <c r="G16">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H16">
+        <v>0.05</v>
+      </c>
+      <c r="I16">
+        <v>0.15</v>
+      </c>
+      <c r="J16">
         <f t="shared" si="0"/>
         <v>0.93125000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>18</v>
       </c>
@@ -792,11 +1001,23 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F17">
+        <v>0.69491525423728795</v>
+      </c>
+      <c r="G17">
+        <v>0.5</v>
+      </c>
+      <c r="H17">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="I17">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="J17">
         <f t="shared" si="0"/>
         <v>0.89375000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>19</v>
       </c>
@@ -813,11 +1034,23 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F18">
+        <v>0.11864406779661001</v>
+      </c>
+      <c r="G18">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J18">
         <f t="shared" si="0"/>
         <v>0.96250000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>20</v>
       </c>
@@ -834,11 +1067,23 @@
         <v>0.05</v>
       </c>
       <c r="F19">
+        <v>0.54237288135593198</v>
+      </c>
+      <c r="G19">
+        <v>0.05</v>
+      </c>
+      <c r="H19">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I19">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J19">
         <f t="shared" si="0"/>
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>21</v>
       </c>
@@ -855,11 +1100,23 @@
         <v>0.1</v>
       </c>
       <c r="F20">
+        <v>8.4745762711864403E-2</v>
+      </c>
+      <c r="G20">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0.05</v>
+      </c>
+      <c r="J20">
         <f t="shared" si="0"/>
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>22</v>
       </c>
@@ -876,11 +1133,23 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F21">
+        <v>0.50847457627118597</v>
+      </c>
+      <c r="G21">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H21">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I21">
+        <v>0.05</v>
+      </c>
+      <c r="J21">
         <f t="shared" si="0"/>
         <v>0.98750000000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>23</v>
       </c>
@@ -897,11 +1166,23 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F22">
+        <v>0.50847457627118597</v>
+      </c>
+      <c r="G22">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J22">
         <f t="shared" si="0"/>
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>24</v>
       </c>
@@ -918,11 +1199,23 @@
         <v>0.1</v>
       </c>
       <c r="F23">
+        <v>0.66101694915254205</v>
+      </c>
+      <c r="G23">
+        <v>0.05</v>
+      </c>
+      <c r="H23">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="I23">
+        <v>0.125</v>
+      </c>
+      <c r="J23">
         <f t="shared" si="0"/>
         <v>0.93125000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>25</v>
       </c>
@@ -939,11 +1232,23 @@
         <v>0.05</v>
       </c>
       <c r="F24">
+        <v>0.71186440677966101</v>
+      </c>
+      <c r="G24">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H24">
+        <v>0.05</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
         <f t="shared" si="0"/>
         <v>0.98124999999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>26</v>
       </c>
@@ -960,11 +1265,23 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F25">
+        <v>0.66101694915254205</v>
+      </c>
+      <c r="G25">
+        <v>0.05</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J25">
         <f t="shared" si="0"/>
         <v>0.96250000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>27</v>
       </c>
@@ -981,11 +1298,23 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="F26">
+        <v>0.66101694915254205</v>
+      </c>
+      <c r="G26">
+        <v>0.1</v>
+      </c>
+      <c r="H26">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="I26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="J26">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>28</v>
       </c>
@@ -1002,11 +1331,23 @@
         <v>0</v>
       </c>
       <c r="F27">
+        <v>6.7796610169491497E-2</v>
+      </c>
+      <c r="G27">
+        <v>0.05</v>
+      </c>
+      <c r="H27">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I27">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J27">
         <f t="shared" si="0"/>
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>29</v>
       </c>
@@ -1023,11 +1364,23 @@
         <v>0</v>
       </c>
       <c r="F28">
+        <v>5.0847457627118703E-2</v>
+      </c>
+      <c r="G28">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H28">
+        <v>0.05</v>
+      </c>
+      <c r="I28">
+        <v>0.1</v>
+      </c>
+      <c r="J28">
         <f t="shared" si="0"/>
         <v>0.99375000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>30</v>
       </c>
@@ -1044,13 +1397,25 @@
         <v>0.1</v>
       </c>
       <c r="F29">
+        <v>0.72881355932203395</v>
+      </c>
+      <c r="G29">
+        <v>0.1</v>
+      </c>
+      <c r="H29">
+        <v>0.125</v>
+      </c>
+      <c r="I29">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="J29">
         <f t="shared" si="0"/>
         <v>0.96250000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f t="shared" ref="A30:A40" si="1">A29+1</f>
+        <f t="shared" ref="A30:A41" si="1">A29+1</f>
         <v>31</v>
       </c>
       <c r="B30">
@@ -1066,11 +1431,23 @@
         <v>0</v>
       </c>
       <c r="F30">
+        <v>0.77966101694915302</v>
+      </c>
+      <c r="G30">
+        <v>0.1</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0.1</v>
+      </c>
+      <c r="J30">
         <f t="shared" si="0"/>
         <v>0.96250000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -1088,11 +1465,23 @@
         <v>0</v>
       </c>
       <c r="F31">
+        <v>0.677966101694915</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
         <f t="shared" si="0"/>
         <v>0.99375000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -1110,11 +1499,23 @@
         <v>0</v>
       </c>
       <c r="F32">
+        <v>3.3898305084745797E-2</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
         <f t="shared" si="0"/>
         <v>0.98750000000000004</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -1132,11 +1533,23 @@
         <v>0</v>
       </c>
       <c r="F33">
+        <v>3.3898305084745797E-2</v>
+      </c>
+      <c r="G33">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J33">
         <f t="shared" si="0"/>
         <v>0.98750000000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -1154,11 +1567,23 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F34">
+        <v>0.50847457627118597</v>
+      </c>
+      <c r="G34">
+        <v>0.05</v>
+      </c>
+      <c r="H34">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I34">
+        <v>0.05</v>
+      </c>
+      <c r="J34">
         <f t="shared" si="0"/>
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -1176,11 +1601,23 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F35">
+        <v>1.6949152542372899E-2</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I35">
+        <v>0.05</v>
+      </c>
+      <c r="J35">
         <f t="shared" si="0"/>
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -1198,11 +1635,23 @@
         <v>0</v>
       </c>
       <c r="F36">
+        <v>0.677966101694915</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
         <f t="shared" si="0"/>
         <v>0.98750000000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -1220,11 +1669,23 @@
         <v>0.05</v>
       </c>
       <c r="F37">
+        <v>0.94915254237288105</v>
+      </c>
+      <c r="G37">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H37">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I37">
+        <v>0.1</v>
+      </c>
+      <c r="J37">
         <f t="shared" si="0"/>
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>39</v>
       </c>
@@ -1241,11 +1702,23 @@
         <v>0.05</v>
       </c>
       <c r="F38">
+        <v>0.677966101694915</v>
+      </c>
+      <c r="G38">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
         <f t="shared" si="0"/>
         <v>0.91249999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -1263,11 +1736,23 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F39">
+        <v>0.169491525423729</v>
+      </c>
+      <c r="G39">
+        <v>0.15</v>
+      </c>
+      <c r="H39">
+        <v>0.1</v>
+      </c>
+      <c r="I39">
+        <v>0.1</v>
+      </c>
+      <c r="J39">
         <f t="shared" si="0"/>
         <v>0.96875</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -1285,8 +1770,50 @@
         <v>0</v>
       </c>
       <c r="F40">
+        <v>8.4745762711864403E-2</v>
+      </c>
+      <c r="G40">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H40">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I40">
+        <v>0.05</v>
+      </c>
+      <c r="J40">
         <f t="shared" si="0"/>
         <v>0.98750000000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C41">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1.6949152542372899E-2</v>
+      </c>
+      <c r="G41">
+        <v>0.05</v>
+      </c>
+      <c r="H41">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I41">
+        <v>0.125</v>
       </c>
     </row>
   </sheetData>
